--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>685.3782603333333</v>
+        <v>72.92148999999999</v>
       </c>
       <c r="H2">
-        <v>2056.134781</v>
+        <v>218.76447</v>
       </c>
       <c r="I2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="J2">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>11765.56646735998</v>
+        <v>147.8202705085133</v>
       </c>
       <c r="R2">
-        <v>105890.0982062398</v>
+        <v>1330.38243457662</v>
       </c>
       <c r="S2">
-        <v>0.03995983092219337</v>
+        <v>0.001329796395518224</v>
       </c>
       <c r="T2">
-        <v>0.03995983092219337</v>
+        <v>0.001329796395518224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>685.3782603333333</v>
+        <v>72.92148999999999</v>
       </c>
       <c r="H3">
-        <v>2056.134781</v>
+        <v>218.76447</v>
       </c>
       <c r="I3">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="J3">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>175761.3518617501</v>
+        <v>18700.30084692161</v>
       </c>
       <c r="R3">
-        <v>1581852.166755751</v>
+        <v>168302.7076222945</v>
       </c>
       <c r="S3">
-        <v>0.5969448154099476</v>
+        <v>0.1682285695716581</v>
       </c>
       <c r="T3">
-        <v>0.5969448154099476</v>
+        <v>0.168228569571658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>685.3782603333333</v>
+        <v>72.92148999999999</v>
       </c>
       <c r="H4">
-        <v>2056.134781</v>
+        <v>218.76447</v>
       </c>
       <c r="I4">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="J4">
-        <v>0.7131285654702259</v>
+        <v>0.2015977907456805</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>22442.97751829885</v>
+        <v>3561.504944409177</v>
       </c>
       <c r="R4">
-        <v>201986.7976646896</v>
+        <v>32053.54449968259</v>
       </c>
       <c r="S4">
-        <v>0.07622391913808479</v>
+        <v>0.03203942477850421</v>
       </c>
       <c r="T4">
-        <v>0.07622391913808479</v>
+        <v>0.0320394247785042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>641.423905</v>
       </c>
       <c r="I5">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="J5">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>3670.340902633217</v>
+        <v>433.4134109973477</v>
       </c>
       <c r="R5">
-        <v>33033.06812369895</v>
+        <v>3900.72069897613</v>
       </c>
       <c r="S5">
-        <v>0.01246571529750949</v>
+        <v>0.003899002415100696</v>
       </c>
       <c r="T5">
-        <v>0.01246571529750949</v>
+        <v>0.003899002415100696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>641.423905</v>
       </c>
       <c r="I6">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="J6">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>54829.83591397299</v>
@@ -818,10 +818,10 @@
         <v>493468.5232257569</v>
       </c>
       <c r="S6">
-        <v>0.1862206106856148</v>
+        <v>0.4932511482656078</v>
       </c>
       <c r="T6">
-        <v>0.1862206106856148</v>
+        <v>0.4932511482656077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>641.423905</v>
       </c>
       <c r="I7">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="J7">
-        <v>0.2224648468854243</v>
+        <v>0.591090693015494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>7001.225023105358</v>
+        <v>10442.43797505026</v>
       </c>
       <c r="R7">
-        <v>63011.02520794823</v>
+        <v>93981.94177545229</v>
       </c>
       <c r="S7">
-        <v>0.02377852090230002</v>
+        <v>0.09394054233478559</v>
       </c>
       <c r="T7">
-        <v>0.02377852090230002</v>
+        <v>0.09394054233478555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.90030400000001</v>
+        <v>74.98824566666667</v>
       </c>
       <c r="H8">
-        <v>185.700912</v>
+        <v>224.964737</v>
       </c>
       <c r="I8">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="J8">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>1062.61342562512</v>
+        <v>152.0098226106669</v>
       </c>
       <c r="R8">
-        <v>9563.520830626083</v>
+        <v>1368.088403496002</v>
       </c>
       <c r="S8">
-        <v>0.003608993493125056</v>
+        <v>0.001367485754799696</v>
       </c>
       <c r="T8">
-        <v>0.003608993493125056</v>
+        <v>0.001367485754799695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.90030400000001</v>
+        <v>74.98824566666667</v>
       </c>
       <c r="H9">
-        <v>185.700912</v>
+        <v>224.964737</v>
       </c>
       <c r="I9">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="J9">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>15873.98045920216</v>
+        <v>19230.30856815368</v>
       </c>
       <c r="R9">
-        <v>142865.8241328194</v>
+        <v>173072.7771133831</v>
       </c>
       <c r="S9">
-        <v>0.05391339014331811</v>
+        <v>0.1729965378270716</v>
       </c>
       <c r="T9">
-        <v>0.05391339014331811</v>
+        <v>0.1729965378270716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.90030400000001</v>
+        <v>74.98824566666667</v>
       </c>
       <c r="H10">
-        <v>185.700912</v>
+        <v>224.964737</v>
       </c>
       <c r="I10">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="J10">
-        <v>0.06440658764434989</v>
+        <v>0.2073115162388255</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>2026.949513064821</v>
+        <v>3662.445840237266</v>
       </c>
       <c r="R10">
-        <v>18242.54561758339</v>
+        <v>32962.01256213539</v>
       </c>
       <c r="S10">
-        <v>0.006884204007906718</v>
+        <v>0.03294749265695424</v>
       </c>
       <c r="T10">
-        <v>0.006884204007906718</v>
+        <v>0.03294749265695422</v>
       </c>
     </row>
   </sheetData>
